--- a/public/question-samples/subjective_excel.xlsx
+++ b/public/question-samples/subjective_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\adhyayanam\public\question-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web-mingo-project\test.adhyayanam.co.in\public\question-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6CACE-E21E-4C1B-B8C0-A45E2650F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF7456-CC66-465B-BEA7-B2DFCDB40FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>text input</t>
+  </si>
+  <si>
+    <t>this is the solution</t>
   </si>
 </sst>
 </file>
@@ -402,20 +405,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="67.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,8 +432,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,6 +448,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/question-samples/subjective_excel.xlsx
+++ b/public/question-samples/subjective_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web-mingo-project\test.adhyayanam.co.in\public\question-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF7456-CC66-465B-BEA7-B2DFCDB40FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B95BEBE-8AEE-45D6-80B9-72969E6F7F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>this is the solution</t>
+  </si>
+  <si>
+    <t>PYQ</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -405,21 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="60.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,13 +436,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,10 +456,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
